--- a/wapp-core/src/main/resources/excl/红字信息表导入模板.xlsx
+++ b/wapp-core/src/main/resources/excl/红字信息表导入模板.xlsx
@@ -1,55 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53277\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D61C9-7B91-47BC-A454-FE89FA1F78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="12820" tabRatio="364"/>
   </bookViews>
   <sheets>
     <sheet name="结算单明细信息" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>532779659@qq.com</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填：</t>
@@ -58,7 +48,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,14 +57,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
@@ -84,7 +72,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,29 +80,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">购方发起:0-已抵扣1-未抵扣 </t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>税局发布分类编码
@@ -124,14 +108,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
@@ -140,7 +123,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -148,14 +130,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
@@ -164,7 +145,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -172,28 +152,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
@@ -202,7 +180,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -210,14 +187,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
@@ -226,7 +202,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -234,14 +209,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="R1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
@@ -250,7 +224,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -258,28 +231,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="S1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{56B838A5-8F64-4E39-8D0A-9982210ED0A5}">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>选填</t>
@@ -288,7 +259,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -296,14 +266,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="U1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>选填</t>
@@ -312,7 +281,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -320,14 +288,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="V1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>选填</t>
@@ -336,7 +303,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -344,42 +310,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>销方申请、购方申请未抵扣时，必填
-格式xxxx</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>YYZZ</t>
+格式xxxxYYZZ</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>申请成品油红字信息时必填
@@ -388,14 +339,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="AC1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>是否享受税收优惠政策
@@ -406,7 +356,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -414,28 +363,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="AD1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">享受税收优惠政策内容 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="AE1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>空-非0税率；
@@ -448,7 +395,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -456,15 +402,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>差额征税必填</t>
@@ -476,7 +420,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+  <si>
+    <t>申请流水号</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -484,22 +431,30 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>发票类型</t>
     </r>
   </si>
   <si>
+    <t>销方名称</t>
+  </si>
+  <si>
     <t>销方税号</t>
   </si>
   <si>
+    <t>购方名称</t>
+  </si>
+  <si>
     <t>购方税号</t>
   </si>
   <si>
     <t>价格方式</t>
   </si>
   <si>
+    <t>申请类型</t>
+  </si>
+  <si>
     <t>税收分类编码</t>
   </si>
   <si>
@@ -509,12 +464,21 @@
     <t>数量单位</t>
   </si>
   <si>
+    <t>型号规格</t>
+  </si>
+  <si>
     <t>数量</t>
   </si>
   <si>
     <t>税率</t>
   </si>
   <si>
+    <t>含税单价</t>
+  </si>
+  <si>
+    <t>不含税单价</t>
+  </si>
+  <si>
     <t>不含税金额</t>
   </si>
   <si>
@@ -524,7 +488,31 @@
     <t>含税金额</t>
   </si>
   <si>
-    <t>型号规格</t>
+    <t>原发票类型</t>
+  </si>
+  <si>
+    <t>原发票号码</t>
+  </si>
+  <si>
+    <t>原发票代码</t>
+  </si>
+  <si>
+    <t>原发票开票日期</t>
+  </si>
+  <si>
+    <t>结算单号</t>
+  </si>
+  <si>
+    <t>申请人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>申请理由</t>
+  </si>
+  <si>
+    <t>成品油申请原因</t>
   </si>
   <si>
     <t>是否享受税收优惠政策</t>
@@ -539,255 +527,266 @@
     <t>扣除额</t>
   </si>
   <si>
-    <t>销方编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购方编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>含税单价</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不含税单价</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>202004131Z62021409</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>申请人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请理由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>原发票代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>原发票号码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请流水号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品油申请原因</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>原发票开票日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>上海欣欣有限公司</t>
+  </si>
+  <si>
+    <t>91500000747150466A</t>
+  </si>
+  <si>
+    <t>武汉市丰业电器有限公司</t>
+  </si>
+  <si>
+    <t>91420111271850146W</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1010303020100000000</t>
+  </si>
+  <si>
+    <t>折让/62021401/19年12月-20年2月扣</t>
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010303020100000000</t>
-  </si>
-  <si>
-    <t>折让/62021401/19年12月-20年2月扣</t>
-  </si>
-  <si>
-    <t>武汉市丰业电器有限公司</t>
-  </si>
-  <si>
-    <t>91420111271850146W</t>
-  </si>
-  <si>
-    <t>上海欣欣有限公司</t>
-  </si>
-  <si>
-    <t>91500000747150466A</t>
   </si>
   <si>
     <t>4255.89</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>202004131Z62021409</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>202004131Z62021409</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-4255.89</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>原发票类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>销方名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购方名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算单号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,31 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,8 +811,212 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -841,174 +1026,436 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="百分比 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="百分比 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="百分比 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="百分比 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+  <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="千位分隔 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="千位分隔 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="千位分隔 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="千位分隔 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 4 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="百分比 3 2" xfId="5"/>
+    <cellStyle name="百分比 3" xfId="6"/>
+    <cellStyle name="百分比 2 2" xfId="7"/>
+    <cellStyle name="百分比 2" xfId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="9" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="10" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="输入" xfId="12" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="13" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="14" builtinId="38"/>
+    <cellStyle name="货币" xfId="15" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="16" builtinId="37"/>
+    <cellStyle name="百分比" xfId="17" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="19" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="20" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="24" builtinId="29"/>
+    <cellStyle name="适中" xfId="25" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="26" builtinId="46"/>
+    <cellStyle name="好" xfId="27" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="28" builtinId="30"/>
+    <cellStyle name="汇总" xfId="29" builtinId="25"/>
+    <cellStyle name="差" xfId="30" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
+    <cellStyle name="输出" xfId="32" builtinId="21"/>
+    <cellStyle name="千位分隔 2" xfId="33"/>
+    <cellStyle name="标题 1" xfId="34" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="35" builtinId="53"/>
+    <cellStyle name="千位分隔 3 2" xfId="36"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="38" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="39" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="40"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="41" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="42" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9"/>
+    <cellStyle name="标题" xfId="44" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="45" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="46" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="47" builtinId="40"/>
+    <cellStyle name="注释" xfId="48" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="49" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8"/>
+    <cellStyle name="千位分隔 2 2" xfId="53"/>
+    <cellStyle name="千位分隔[0]" xfId="54" builtinId="6"/>
+    <cellStyle name="千位分隔 3" xfId="55"/>
+    <cellStyle name="标题 2" xfId="56" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="58" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="60" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="61"/>
+    <cellStyle name="链接单元格" xfId="62" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1081,9 +1528,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1341,234 +1785,222 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="22.125" customWidth="1"/>
-    <col min="20" max="20" width="17.125" customWidth="1"/>
-    <col min="21" max="21" width="24.875" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="23"/>
-    <col min="26" max="26" width="18.125" customWidth="1"/>
-    <col min="27" max="28" width="14.625" customWidth="1"/>
-    <col min="29" max="30" width="30" customWidth="1"/>
-    <col min="31" max="31" width="20.375" customWidth="1"/>
-    <col min="32" max="32" width="23.625" customWidth="1"/>
-    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="21.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="24.875" customWidth="1"/>
+    <col min="24" max="24" width="18.125" customWidth="1"/>
+    <col min="25" max="26" width="14.625" customWidth="1"/>
+    <col min="27" max="28" width="30" customWidth="1"/>
+    <col min="29" max="29" width="20.375" customWidth="1"/>
+    <col min="30" max="30" width="23.625" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="29" spans="1:32">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="AC1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:32">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="18">
-        <v>62021401</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="13">
+        <v>4638.92</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2">
+        <v>-383.03</v>
+      </c>
+      <c r="S2" s="13">
+        <v>-4638.92</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="24">
-        <v>0.09</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>4638.92</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="23">
-        <v>-383.03</v>
-      </c>
-      <c r="U2" s="25">
-        <v>-4638.92</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
       <formula1>"c,s,ce"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>